--- a/Code/Results/Cases/Case_3_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.08215562250508</v>
+        <v>19.74209299016793</v>
       </c>
       <c r="C2">
-        <v>12.51163062248175</v>
+        <v>8.620208856397925</v>
       </c>
       <c r="D2">
-        <v>3.881017763759049</v>
+        <v>7.148593320140064</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.4095137377939</v>
+        <v>42.85088131713091</v>
       </c>
       <c r="G2">
-        <v>42.36798913924711</v>
+        <v>51.79652735140372</v>
       </c>
       <c r="H2">
-        <v>13.31352572648384</v>
+        <v>19.94904172104233</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.495619722934756</v>
+        <v>10.64650781202987</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.76637543186683</v>
+        <v>11.4838937008914</v>
       </c>
       <c r="M2">
-        <v>12.98273660721365</v>
+        <v>17.99075101424994</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74252913469357</v>
+        <v>19.40185026025539</v>
       </c>
       <c r="C3">
-        <v>11.87525245026505</v>
+        <v>8.317108092986068</v>
       </c>
       <c r="D3">
-        <v>3.851279818155525</v>
+        <v>7.148507805370994</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.88253473499146</v>
+        <v>42.90088622264653</v>
       </c>
       <c r="G3">
-        <v>41.27201696575512</v>
+        <v>51.77207886595306</v>
       </c>
       <c r="H3">
-        <v>13.23931633321975</v>
+        <v>19.99670212024472</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.555001305604947</v>
+        <v>10.66547099276632</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.688009221252466</v>
+        <v>11.49298133412175</v>
       </c>
       <c r="M3">
-        <v>12.45299640361783</v>
+        <v>17.93155874624999</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.8821176916554</v>
+        <v>19.19419295380378</v>
       </c>
       <c r="C4">
-        <v>11.46770250270684</v>
+        <v>8.12367075531915</v>
       </c>
       <c r="D4">
-        <v>3.83350575548946</v>
+        <v>7.14865803923872</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.58599395812815</v>
+        <v>42.94224469423641</v>
       </c>
       <c r="G4">
-        <v>40.634858842979</v>
+        <v>51.77298730876744</v>
       </c>
       <c r="H4">
-        <v>13.20498163129735</v>
+        <v>20.02997847157386</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.592348970703432</v>
+        <v>10.67769557892754</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.642082886294364</v>
+        <v>11.49985369900504</v>
       </c>
       <c r="M4">
-        <v>12.12252852664584</v>
+        <v>17.89806912747</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52210513119189</v>
+        <v>19.10999952614327</v>
       </c>
       <c r="C5">
-        <v>11.29746535674511</v>
+        <v>8.043070345135087</v>
       </c>
       <c r="D5">
-        <v>3.826376334136072</v>
+        <v>7.148770397084945</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.47182183902637</v>
+        <v>42.96177010066383</v>
       </c>
       <c r="G5">
-        <v>40.38423223562319</v>
+        <v>51.77735266598651</v>
       </c>
       <c r="H5">
-        <v>13.19370476316898</v>
+        <v>20.04454527452134</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.607800318026899</v>
+        <v>10.68282379717229</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.62392182262955</v>
+        <v>11.50297986467679</v>
       </c>
       <c r="M5">
-        <v>11.98672633052985</v>
+        <v>17.88514917167204</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46176337959363</v>
+        <v>19.09604848768011</v>
       </c>
       <c r="C6">
-        <v>11.26894899987708</v>
+        <v>8.029581839350911</v>
       </c>
       <c r="D6">
-        <v>3.82519913440787</v>
+        <v>7.148792147130316</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.45326252689737</v>
+        <v>42.96517337962008</v>
       </c>
       <c r="G6">
-        <v>40.34316091601096</v>
+        <v>51.77831852626186</v>
       </c>
       <c r="H6">
-        <v>13.19199300092617</v>
+        <v>20.0470247876321</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.610380254645993</v>
+        <v>10.68368420211261</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.620939758908877</v>
+        <v>11.50351864577504</v>
       </c>
       <c r="M6">
-        <v>11.96411355949623</v>
+        <v>17.88304801635478</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.87730022762164</v>
+        <v>19.1930556059603</v>
       </c>
       <c r="C7">
-        <v>11.46542334896192</v>
+        <v>8.122590830020911</v>
       </c>
       <c r="D7">
-        <v>3.833409155899157</v>
+        <v>7.148659347264948</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.58442736219226</v>
+        <v>42.94249721524798</v>
       </c>
       <c r="G7">
-        <v>40.6314422666745</v>
+        <v>51.77303001855855</v>
       </c>
       <c r="H7">
-        <v>13.20481870043166</v>
+        <v>20.03017085321512</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.592556402866248</v>
+        <v>10.67776414566861</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.641835711403819</v>
+        <v>11.49989454036932</v>
       </c>
       <c r="M7">
-        <v>12.12070139354396</v>
+        <v>17.89789192745029</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62817871836287</v>
+        <v>19.62458504769688</v>
       </c>
       <c r="C8">
-        <v>12.29573195713166</v>
+        <v>8.51726141753883</v>
       </c>
       <c r="D8">
-        <v>3.870658142687974</v>
+        <v>7.148521847843289</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.22213165447952</v>
+        <v>42.86590710996005</v>
       </c>
       <c r="G8">
-        <v>41.98269474381811</v>
+        <v>51.78478952467876</v>
       </c>
       <c r="H8">
-        <v>13.28554223827327</v>
+        <v>19.96464067200375</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.515915827535972</v>
+        <v>10.652925992088</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.73890218676287</v>
+        <v>11.48675922765473</v>
       </c>
       <c r="M8">
-        <v>12.80126037804692</v>
+        <v>17.96975493573976</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84505178694935</v>
+        <v>20.47582937025805</v>
       </c>
       <c r="C9">
-        <v>13.78858431501836</v>
+        <v>9.230327256638862</v>
       </c>
       <c r="D9">
-        <v>3.947978168932107</v>
+        <v>7.149854545404202</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.69200995689027</v>
+        <v>42.8005642595525</v>
       </c>
       <c r="G9">
-        <v>44.91457221426493</v>
+        <v>51.93437313925764</v>
       </c>
       <c r="H9">
-        <v>13.53777246978312</v>
+        <v>19.86808657720339</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.372236207944104</v>
+        <v>10.60880756720757</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.946482454285133</v>
+        <v>11.4712292683082</v>
       </c>
       <c r="M9">
-        <v>14.08805478915749</v>
+        <v>18.13288265427936</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08180084692864</v>
+        <v>21.09785104025691</v>
       </c>
       <c r="C10">
-        <v>14.8015774802678</v>
+        <v>9.713995437287458</v>
       </c>
       <c r="D10">
-        <v>4.008068048180732</v>
+        <v>7.151802777890397</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.91177043929891</v>
+        <v>42.80463292701344</v>
       </c>
       <c r="G10">
-        <v>47.23842929468501</v>
+        <v>52.12146233953975</v>
       </c>
       <c r="H10">
-        <v>13.78690983451307</v>
+        <v>19.81677179566998</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.270063639758451</v>
+        <v>10.57916068450203</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.10932448506016</v>
+        <v>11.46601738721548</v>
       </c>
       <c r="M10">
-        <v>14.99737517959723</v>
+        <v>18.26563202330193</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.05215922482109</v>
+        <v>21.37878678416142</v>
       </c>
       <c r="C11">
-        <v>15.24429874537139</v>
+        <v>9.924770278064038</v>
       </c>
       <c r="D11">
-        <v>4.036294189444854</v>
+        <v>7.152897942353488</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.49829002616351</v>
+        <v>42.81784075340988</v>
       </c>
       <c r="G11">
-        <v>48.33234776151188</v>
+        <v>52.22327158595325</v>
       </c>
       <c r="H11">
-        <v>13.91551309051024</v>
+        <v>19.79771654046116</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.224162551429998</v>
+        <v>10.56626779927419</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.185625010301153</v>
+        <v>11.46498340928485</v>
       </c>
       <c r="M11">
-        <v>15.4022142669314</v>
+        <v>18.32867581205278</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.41298352323427</v>
+        <v>21.4847756054956</v>
       </c>
       <c r="C12">
-        <v>15.40936976531563</v>
+        <v>10.00321907170739</v>
       </c>
       <c r="D12">
-        <v>4.047127879981153</v>
+        <v>7.153342551482607</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.72504787066679</v>
+        <v>42.82447702683634</v>
       </c>
       <c r="G12">
-        <v>48.75190355490537</v>
+        <v>52.26421415702539</v>
       </c>
       <c r="H12">
-        <v>13.96652412064672</v>
+        <v>19.79111944375024</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.206849945271323</v>
+        <v>10.5614704676503</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.214836724562954</v>
+        <v>11.46478327934303</v>
       </c>
       <c r="M12">
-        <v>15.55419467180504</v>
+        <v>18.35291724963547</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.33556583715164</v>
+        <v>21.46196821211896</v>
       </c>
       <c r="C13">
-        <v>15.37393288280473</v>
+        <v>9.986385058654285</v>
       </c>
       <c r="D13">
-        <v>4.044787904419285</v>
+        <v>7.153245469715451</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.67600262399107</v>
+        <v>42.82297506888697</v>
       </c>
       <c r="G13">
-        <v>48.66130754086662</v>
+        <v>52.25529039382069</v>
       </c>
       <c r="H13">
-        <v>13.95543328855481</v>
+        <v>19.79251269770748</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.210575685086669</v>
+        <v>10.56249988878636</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.208531303356757</v>
+        <v>11.46481788147009</v>
       </c>
       <c r="M13">
-        <v>15.52152248858099</v>
+        <v>18.34768027384494</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08197640277282</v>
+        <v>21.38751505348062</v>
       </c>
       <c r="C14">
-        <v>15.25793071314622</v>
+        <v>9.931251900291919</v>
       </c>
       <c r="D14">
-        <v>4.037182471080867</v>
+        <v>7.15293392232164</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.51685157261672</v>
+        <v>42.81835395616903</v>
       </c>
       <c r="G14">
-        <v>48.36675809257795</v>
+        <v>52.22659214649516</v>
       </c>
       <c r="H14">
-        <v>13.91966279299245</v>
+        <v>19.79716138205801</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.222736931514014</v>
+        <v>10.56587142041245</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.188021896884209</v>
+        <v>11.46496311318157</v>
       </c>
       <c r="M14">
-        <v>15.41474455150135</v>
+        <v>18.33066287239267</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.92578694110853</v>
+        <v>21.34185583382533</v>
       </c>
       <c r="C15">
-        <v>15.18654127704289</v>
+        <v>9.897302201058613</v>
       </c>
       <c r="D15">
-        <v>4.032543357341548</v>
+        <v>7.152746979338664</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.41997661219573</v>
+        <v>42.81573630991254</v>
       </c>
       <c r="G15">
-        <v>48.18703140909895</v>
+        <v>52.20932441987942</v>
       </c>
       <c r="H15">
-        <v>13.89805688144579</v>
+        <v>19.80008946930394</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.230194615302874</v>
+        <v>10.56794762753584</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.175500741937245</v>
+        <v>11.46507697410413</v>
       </c>
       <c r="M15">
-        <v>15.34916635273241</v>
+        <v>18.32028674710612</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01744941841202</v>
+        <v>21.07944145873858</v>
       </c>
       <c r="C16">
-        <v>14.77228221933515</v>
+        <v>9.70003141060109</v>
       </c>
       <c r="D16">
-        <v>4.006242728903256</v>
+        <v>7.151735397481677</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.87408547142927</v>
+        <v>42.80399846699864</v>
       </c>
       <c r="G16">
-        <v>47.1676802668729</v>
+        <v>52.11514399837328</v>
       </c>
       <c r="H16">
-        <v>13.77882243300244</v>
+        <v>19.81810357189599</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.273073845649795</v>
+        <v>10.58001517263276</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.104382651840507</v>
+        <v>11.46611179240224</v>
       </c>
       <c r="M16">
-        <v>14.97073534944381</v>
+        <v>18.2615642360575</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44824018265108</v>
+        <v>20.91786439808208</v>
       </c>
       <c r="C17">
-        <v>14.51352574300645</v>
+        <v>9.576615352453215</v>
       </c>
       <c r="D17">
-        <v>3.990347696869116</v>
+        <v>7.151168225700419</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.54737489770223</v>
+        <v>42.79970807162454</v>
       </c>
       <c r="G17">
-        <v>46.55176499745162</v>
+        <v>52.06163762510245</v>
       </c>
       <c r="H17">
-        <v>13.70966867072285</v>
+        <v>19.83025447123745</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.299517298306887</v>
+        <v>10.58756995032406</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.061321960590096</v>
+        <v>11.4670884622377</v>
       </c>
       <c r="M17">
-        <v>14.73627585618164</v>
+        <v>18.22621039776836</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11639820874126</v>
+        <v>20.82474488660629</v>
       </c>
       <c r="C18">
-        <v>14.36299035137957</v>
+        <v>9.504761084536094</v>
       </c>
       <c r="D18">
-        <v>3.981288014735933</v>
+        <v>7.15086167513814</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.36243133796727</v>
+        <v>42.79830931000071</v>
       </c>
       <c r="G18">
-        <v>46.20096535119539</v>
+        <v>52.03243515062478</v>
       </c>
       <c r="H18">
-        <v>13.67132345000006</v>
+        <v>19.83764684957989</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.314782154830175</v>
+        <v>10.59197116003357</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.036763815414375</v>
+        <v>11.46777610833374</v>
       </c>
       <c r="M18">
-        <v>14.60059316319765</v>
+        <v>18.20612660272625</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00327393622639</v>
+        <v>20.79318775919423</v>
       </c>
       <c r="C19">
-        <v>14.31172823846877</v>
+        <v>9.480284497049691</v>
       </c>
       <c r="D19">
-        <v>3.978234289274533</v>
+        <v>7.150761265486609</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.30032001776399</v>
+        <v>42.79801923588789</v>
       </c>
       <c r="G19">
-        <v>46.08278465886052</v>
+        <v>52.02281815988535</v>
       </c>
       <c r="H19">
-        <v>13.6585825566216</v>
+        <v>19.84021901698967</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.31996047259233</v>
+        <v>10.59347094855543</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.028484847436041</v>
+        <v>11.46803058007971</v>
       </c>
       <c r="M19">
-        <v>14.55451321196838</v>
+        <v>18.19937005924767</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.50929277037508</v>
+        <v>20.93508443412164</v>
       </c>
       <c r="C20">
-        <v>14.54124719768458</v>
+        <v>9.589843386578394</v>
       </c>
       <c r="D20">
-        <v>3.992031073412067</v>
+        <v>7.151226567206814</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.58184551376897</v>
+        <v>42.80005414228011</v>
       </c>
       <c r="G20">
-        <v>46.61697226566684</v>
+        <v>52.06717074847135</v>
       </c>
       <c r="H20">
-        <v>13.71688135443129</v>
+        <v>19.8289192106934</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.296696723218011</v>
+        <v>10.58675994896408</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.065884204793848</v>
+        <v>11.46697147068662</v>
       </c>
       <c r="M20">
-        <v>14.76132061510569</v>
+        <v>18.22994801545065</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.15664041028725</v>
+        <v>21.40939528997735</v>
       </c>
       <c r="C21">
-        <v>15.29207306213861</v>
+        <v>9.947483217995785</v>
       </c>
       <c r="D21">
-        <v>4.039412287672502</v>
+        <v>7.153024621182507</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.56347083433148</v>
+        <v>42.8196669159184</v>
       </c>
       <c r="G21">
-        <v>48.45312979939568</v>
+        <v>52.23495677807961</v>
       </c>
       <c r="H21">
-        <v>13.93010577556954</v>
+        <v>19.79577914328021</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.21916311948487</v>
+        <v>10.56487881851417</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.194037368841927</v>
+        <v>11.46491526704637</v>
       </c>
       <c r="M21">
-        <v>15.44614407352007</v>
+        <v>18.3356514168423</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.19471715997828</v>
+        <v>21.71703503120389</v>
       </c>
       <c r="C22">
-        <v>15.76777657104499</v>
+        <v>10.17323948815719</v>
       </c>
       <c r="D22">
-        <v>4.071233787253367</v>
+        <v>7.154373932506375</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.23221665184935</v>
+        <v>42.84201339578777</v>
       </c>
       <c r="G22">
-        <v>49.6841785859335</v>
+        <v>52.35853498643288</v>
       </c>
       <c r="H22">
-        <v>14.08299115517325</v>
+        <v>19.7777273754086</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.16888603367104</v>
+        <v>10.55107303626993</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.279649152739552</v>
+        <v>11.46468671130753</v>
       </c>
       <c r="M22">
-        <v>15.88599142253384</v>
+        <v>18.406873689617</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.64415057984332</v>
+        <v>21.55309008785487</v>
       </c>
       <c r="C23">
-        <v>15.51524585715218</v>
+        <v>10.0534904572127</v>
       </c>
       <c r="D23">
-        <v>4.05416558882464</v>
+        <v>7.153637890077272</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.8727671215366</v>
+        <v>42.8292146240089</v>
       </c>
       <c r="G23">
-        <v>49.02428617094354</v>
+        <v>52.29131018972774</v>
       </c>
       <c r="H23">
-        <v>14.00011614333553</v>
+        <v>19.78703124351928</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.19568860033494</v>
+        <v>10.5583963120965</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.233786672876573</v>
+        <v>11.46470693462986</v>
       </c>
       <c r="M23">
-        <v>15.65195626705373</v>
+        <v>18.36866996721702</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48170522220399</v>
+        <v>20.92729995398018</v>
       </c>
       <c r="C24">
-        <v>14.52871985168493</v>
+        <v>9.583865795102902</v>
       </c>
       <c r="D24">
-        <v>3.991269775356448</v>
+        <v>7.151200130198124</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.56625236453927</v>
+        <v>42.79989435763984</v>
       </c>
       <c r="G24">
-        <v>46.5874817874338</v>
+        <v>52.06466436624668</v>
       </c>
       <c r="H24">
-        <v>13.71361611018799</v>
+        <v>19.82952161540683</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.297971710552686</v>
+        <v>10.58712597029461</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.063820997280135</v>
+        <v>11.46702396958175</v>
       </c>
       <c r="M24">
-        <v>14.75000064354778</v>
+        <v>18.22825748491295</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.97861667111414</v>
+        <v>20.24568501120472</v>
       </c>
       <c r="C25">
-        <v>13.39941961759428</v>
+        <v>9.044288962812946</v>
       </c>
       <c r="D25">
-        <v>3.926538554265727</v>
+        <v>7.149323278067935</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.27022726078223</v>
+        <v>42.80911645025295</v>
       </c>
       <c r="G25">
-        <v>44.09146772475471</v>
+        <v>51.88034113479129</v>
       </c>
       <c r="H25">
-        <v>13.45880194081336</v>
+        <v>19.89077083960289</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.410460815846614</v>
+        <v>10.62025465975893</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.888500542118248</v>
+        <v>11.47433921130768</v>
       </c>
       <c r="M25">
-        <v>13.74586560250512</v>
+        <v>18.08643837747508</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.74209299016793</v>
+        <v>21.08215562250508</v>
       </c>
       <c r="C2">
-        <v>8.620208856397925</v>
+        <v>12.51163062248193</v>
       </c>
       <c r="D2">
-        <v>7.148593320140064</v>
+        <v>3.881017763758984</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.85088131713091</v>
+        <v>31.40951373779391</v>
       </c>
       <c r="G2">
-        <v>51.79652735140372</v>
+        <v>42.3679891392471</v>
       </c>
       <c r="H2">
-        <v>19.94904172104233</v>
+        <v>13.31352572648396</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.64650781202987</v>
+        <v>6.495619722934855</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.4838937008914</v>
+        <v>6.766375431866805</v>
       </c>
       <c r="M2">
-        <v>17.99075101424994</v>
+        <v>12.98273660721368</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40185026025539</v>
+        <v>19.74252913469358</v>
       </c>
       <c r="C3">
-        <v>8.317108092986068</v>
+        <v>11.87525245026474</v>
       </c>
       <c r="D3">
-        <v>7.148507805370994</v>
+        <v>3.85127981815553</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.90088622264653</v>
+        <v>30.88253473499136</v>
       </c>
       <c r="G3">
-        <v>51.77207886595306</v>
+        <v>41.27201696575494</v>
       </c>
       <c r="H3">
-        <v>19.99670212024472</v>
+        <v>13.23931633321972</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.66547099276632</v>
+        <v>6.555001305604848</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.49298133412175</v>
+        <v>6.688009221252492</v>
       </c>
       <c r="M3">
-        <v>17.93155874624999</v>
+        <v>12.45299640361782</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.19419295380378</v>
+        <v>18.8821176916554</v>
       </c>
       <c r="C4">
-        <v>8.12367075531915</v>
+        <v>11.46770250270692</v>
       </c>
       <c r="D4">
-        <v>7.14865803923872</v>
+        <v>3.833505755489335</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.94224469423641</v>
+        <v>30.58599395812808</v>
       </c>
       <c r="G4">
-        <v>51.77298730876744</v>
+        <v>40.63485884297886</v>
       </c>
       <c r="H4">
-        <v>20.02997847157386</v>
+        <v>13.20498163129736</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.67769557892754</v>
+        <v>6.592348970703467</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.49985369900504</v>
+        <v>6.642082886294262</v>
       </c>
       <c r="M4">
-        <v>17.89806912747</v>
+        <v>12.1225285266458</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.10999952614327</v>
+        <v>18.52210513119186</v>
       </c>
       <c r="C5">
-        <v>8.043070345135087</v>
+        <v>11.29746535674517</v>
       </c>
       <c r="D5">
-        <v>7.148770397084945</v>
+        <v>3.826376334135877</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.96177010066383</v>
+        <v>30.47182183902604</v>
       </c>
       <c r="G5">
-        <v>51.77735266598651</v>
+        <v>40.3842322356229</v>
       </c>
       <c r="H5">
-        <v>20.04454527452134</v>
+        <v>13.19370476316884</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.68282379717229</v>
+        <v>6.607800318026968</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.50297986467679</v>
+        <v>6.623921822629497</v>
       </c>
       <c r="M5">
-        <v>17.88514917167204</v>
+        <v>11.9867263305298</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.09604848768011</v>
+        <v>18.46176337959364</v>
       </c>
       <c r="C6">
-        <v>8.029581839350911</v>
+        <v>11.2689489998771</v>
       </c>
       <c r="D6">
-        <v>7.148792147130316</v>
+        <v>3.825199134407871</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.96517337962008</v>
+        <v>30.45326252689733</v>
       </c>
       <c r="G6">
-        <v>51.77831852626186</v>
+        <v>40.34316091601106</v>
       </c>
       <c r="H6">
-        <v>20.0470247876321</v>
+        <v>13.191993000926</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.68368420211261</v>
+        <v>6.610380254645991</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.50351864577504</v>
+        <v>6.620939758908912</v>
       </c>
       <c r="M6">
-        <v>17.88304801635478</v>
+        <v>11.96411355949623</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.1930556059603</v>
+        <v>18.87730022762166</v>
       </c>
       <c r="C7">
-        <v>8.122590830020911</v>
+        <v>11.4654233489621</v>
       </c>
       <c r="D7">
-        <v>7.148659347264948</v>
+        <v>3.833409155899228</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.94249721524798</v>
+        <v>30.58442736219234</v>
       </c>
       <c r="G7">
-        <v>51.77303001855855</v>
+        <v>40.63144226667465</v>
       </c>
       <c r="H7">
-        <v>20.03017085321512</v>
+        <v>13.2048187004317</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.67776414566861</v>
+        <v>6.592556402866282</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.49989454036932</v>
+        <v>6.641835711403818</v>
       </c>
       <c r="M7">
-        <v>17.89789192745029</v>
+        <v>12.120701393544</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.62458504769688</v>
+        <v>20.62817871836288</v>
       </c>
       <c r="C8">
-        <v>8.51726141753883</v>
+        <v>12.29573195713186</v>
       </c>
       <c r="D8">
-        <v>7.148521847843289</v>
+        <v>3.870658142688043</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.86590710996005</v>
+        <v>31.22213165447958</v>
       </c>
       <c r="G8">
-        <v>51.78478952467876</v>
+        <v>41.98269474381811</v>
       </c>
       <c r="H8">
-        <v>19.96464067200375</v>
+        <v>13.28554223827335</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.652925992088</v>
+        <v>6.515915827536002</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.48675922765473</v>
+        <v>6.73890218676285</v>
       </c>
       <c r="M8">
-        <v>17.96975493573976</v>
+        <v>12.80126037804695</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.47582937025805</v>
+        <v>23.84505178694933</v>
       </c>
       <c r="C9">
-        <v>9.230327256638862</v>
+        <v>13.78858431501867</v>
       </c>
       <c r="D9">
-        <v>7.149854545404202</v>
+        <v>3.94797816893241</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.8005642595525</v>
+        <v>32.69200995689025</v>
       </c>
       <c r="G9">
-        <v>51.93437313925764</v>
+        <v>44.91457221426469</v>
       </c>
       <c r="H9">
-        <v>19.86808657720339</v>
+        <v>13.53777246978305</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.60880756720757</v>
+        <v>6.372236207944004</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.4712292683082</v>
+        <v>6.946482454285058</v>
       </c>
       <c r="M9">
-        <v>18.13288265427936</v>
+        <v>14.08805478915751</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.09785104025691</v>
+        <v>26.08180084692862</v>
       </c>
       <c r="C10">
-        <v>9.713995437287458</v>
+        <v>14.80157748026769</v>
       </c>
       <c r="D10">
-        <v>7.151802777890397</v>
+        <v>4.008068048180729</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.80463292701344</v>
+        <v>33.91177043929883</v>
       </c>
       <c r="G10">
-        <v>52.12146233953975</v>
+        <v>47.23842929468496</v>
       </c>
       <c r="H10">
-        <v>19.81677179566998</v>
+        <v>13.78690983451305</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.57916068450203</v>
+        <v>6.270063639758515</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.46601738721548</v>
+        <v>7.109324485060207</v>
       </c>
       <c r="M10">
-        <v>18.26563202330193</v>
+        <v>14.99737517959726</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.37878678416142</v>
+        <v>27.05215922482109</v>
       </c>
       <c r="C11">
-        <v>9.924770278064038</v>
+        <v>15.24429874537126</v>
       </c>
       <c r="D11">
-        <v>7.152897942353488</v>
+        <v>4.036294189444726</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.81784075340988</v>
+        <v>34.49829002616368</v>
       </c>
       <c r="G11">
-        <v>52.22327158595325</v>
+        <v>48.33234776151214</v>
       </c>
       <c r="H11">
-        <v>19.79771654046116</v>
+        <v>13.91551309051035</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.56626779927419</v>
+        <v>6.224162551429934</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.46498340928485</v>
+        <v>7.185625010301161</v>
       </c>
       <c r="M11">
-        <v>18.32867581205278</v>
+        <v>15.4022142669314</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.4847756054956</v>
+        <v>27.41298352323425</v>
       </c>
       <c r="C12">
-        <v>10.00321907170739</v>
+        <v>15.40936976531558</v>
       </c>
       <c r="D12">
-        <v>7.153342551482607</v>
+        <v>4.047127879981026</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.82447702683634</v>
+        <v>34.72504787066674</v>
       </c>
       <c r="G12">
-        <v>52.26421415702539</v>
+        <v>48.75190355490523</v>
       </c>
       <c r="H12">
-        <v>19.79111944375024</v>
+        <v>13.96652412064677</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.5614704676503</v>
+        <v>6.206849945271355</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.46478327934303</v>
+        <v>7.214836724562998</v>
       </c>
       <c r="M12">
-        <v>18.35291724963547</v>
+        <v>15.55419467180506</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.46196821211896</v>
+        <v>27.33556583715158</v>
       </c>
       <c r="C13">
-        <v>9.986385058654285</v>
+        <v>15.37393288280459</v>
       </c>
       <c r="D13">
-        <v>7.153245469715451</v>
+        <v>4.044787904419036</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>42.82297506888697</v>
+        <v>34.67600262399102</v>
       </c>
       <c r="G13">
-        <v>52.25529039382069</v>
+        <v>48.66130754086663</v>
       </c>
       <c r="H13">
-        <v>19.79251269770748</v>
+        <v>13.95543328855486</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.56249988878636</v>
+        <v>6.2105756850867</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.46481788147009</v>
+        <v>7.208531303356757</v>
       </c>
       <c r="M13">
-        <v>18.34768027384494</v>
+        <v>15.52152248858102</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.38751505348062</v>
+        <v>27.08197640277285</v>
       </c>
       <c r="C14">
-        <v>9.931251900291919</v>
+        <v>15.25793071314614</v>
       </c>
       <c r="D14">
-        <v>7.15293392232164</v>
+        <v>4.037182471080921</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.81835395616903</v>
+        <v>34.51685157261664</v>
       </c>
       <c r="G14">
-        <v>52.22659214649516</v>
+        <v>48.36675809257792</v>
       </c>
       <c r="H14">
-        <v>19.79716138205801</v>
+        <v>13.91966279299242</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.56587142041245</v>
+        <v>6.222736931514047</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.46496311318157</v>
+        <v>7.188021896884254</v>
       </c>
       <c r="M14">
-        <v>18.33066287239267</v>
+        <v>15.41474455150136</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.34185583382533</v>
+        <v>26.92578694110851</v>
       </c>
       <c r="C15">
-        <v>9.897302201058613</v>
+        <v>15.18654127704262</v>
       </c>
       <c r="D15">
-        <v>7.152746979338664</v>
+        <v>4.032543357341302</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.81573630991254</v>
+        <v>34.4199766121958</v>
       </c>
       <c r="G15">
-        <v>52.20932441987942</v>
+        <v>48.18703140909906</v>
       </c>
       <c r="H15">
-        <v>19.80008946930394</v>
+        <v>13.89805688144589</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.56794762753584</v>
+        <v>6.230194615302906</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.46507697410413</v>
+        <v>7.175500741937266</v>
       </c>
       <c r="M15">
-        <v>18.32028674710612</v>
+        <v>15.34916635273244</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.07944145873858</v>
+        <v>26.01744941841206</v>
       </c>
       <c r="C16">
-        <v>9.70003141060109</v>
+        <v>14.77228221933525</v>
       </c>
       <c r="D16">
-        <v>7.151735397481677</v>
+        <v>4.006242728902944</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.80399846699864</v>
+        <v>33.87408547142903</v>
       </c>
       <c r="G16">
-        <v>52.11514399837328</v>
+        <v>47.16768026687266</v>
       </c>
       <c r="H16">
-        <v>19.81810357189599</v>
+        <v>13.7788224330024</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.58001517263276</v>
+        <v>6.273073845649796</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.46611179240224</v>
+        <v>7.104382651840423</v>
       </c>
       <c r="M16">
-        <v>18.2615642360575</v>
+        <v>14.97073534944377</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.91786439808208</v>
+        <v>25.44824018265104</v>
       </c>
       <c r="C17">
-        <v>9.576615352453215</v>
+        <v>14.51352574300653</v>
       </c>
       <c r="D17">
-        <v>7.151168225700419</v>
+        <v>3.990347696868877</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.79970807162454</v>
+        <v>33.5473748977023</v>
       </c>
       <c r="G17">
-        <v>52.06163762510245</v>
+        <v>46.55176499745171</v>
       </c>
       <c r="H17">
-        <v>19.83025447123745</v>
+        <v>13.70966867072296</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.58756995032406</v>
+        <v>6.299517298306919</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.4670884622377</v>
+        <v>7.061321960590027</v>
       </c>
       <c r="M17">
-        <v>18.22621039776836</v>
+        <v>14.73627585618163</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.82474488660629</v>
+        <v>25.11639820874122</v>
       </c>
       <c r="C18">
-        <v>9.504761084536094</v>
+        <v>14.36299035137932</v>
       </c>
       <c r="D18">
-        <v>7.15086167513814</v>
+        <v>3.981288014735731</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.79830931000071</v>
+        <v>33.36243133796744</v>
       </c>
       <c r="G18">
-        <v>52.03243515062478</v>
+        <v>46.20096535119563</v>
       </c>
       <c r="H18">
-        <v>19.83764684957989</v>
+        <v>13.67132345000019</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.59197116003357</v>
+        <v>6.314782154830239</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.46777610833374</v>
+        <v>7.036763815414461</v>
       </c>
       <c r="M18">
-        <v>18.20612660272625</v>
+        <v>14.60059316319769</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.79318775919423</v>
+        <v>25.00327393622637</v>
       </c>
       <c r="C19">
-        <v>9.480284497049691</v>
+        <v>14.31172823846879</v>
       </c>
       <c r="D19">
-        <v>7.150761265486609</v>
+        <v>3.978234289274346</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.79801923588789</v>
+        <v>33.30032001776394</v>
       </c>
       <c r="G19">
-        <v>52.02281815988535</v>
+        <v>46.08278465886048</v>
       </c>
       <c r="H19">
-        <v>19.84021901698967</v>
+        <v>13.65858255662161</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.59347094855543</v>
+        <v>6.319960472592332</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.46803058007971</v>
+        <v>7.02848484743603</v>
       </c>
       <c r="M19">
-        <v>18.19937005924767</v>
+        <v>14.55451321196836</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.93508443412164</v>
+        <v>25.5092927703751</v>
       </c>
       <c r="C20">
-        <v>9.589843386578394</v>
+        <v>14.5412471976843</v>
       </c>
       <c r="D20">
-        <v>7.151226567206814</v>
+        <v>3.992031073411865</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.80005414228011</v>
+        <v>33.58184551376906</v>
       </c>
       <c r="G20">
-        <v>52.06717074847135</v>
+        <v>46.61697226566699</v>
       </c>
       <c r="H20">
-        <v>19.8289192106934</v>
+        <v>13.71688135443139</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.58675994896408</v>
+        <v>6.296696723217911</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.46697147068662</v>
+        <v>7.065884204793836</v>
       </c>
       <c r="M20">
-        <v>18.22994801545065</v>
+        <v>14.76132061510566</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.40939528997735</v>
+        <v>27.15664041028721</v>
       </c>
       <c r="C21">
-        <v>9.947483217995785</v>
+        <v>15.29207306213858</v>
       </c>
       <c r="D21">
-        <v>7.153024621182507</v>
+        <v>4.039412287672368</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.8196669159184</v>
+        <v>34.56347083433148</v>
       </c>
       <c r="G21">
-        <v>52.23495677807961</v>
+        <v>48.45312979939575</v>
       </c>
       <c r="H21">
-        <v>19.79577914328021</v>
+        <v>13.93010577556956</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.56487881851417</v>
+        <v>6.219163119484906</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.46491526704637</v>
+        <v>7.19403736884184</v>
       </c>
       <c r="M21">
-        <v>18.3356514168423</v>
+        <v>15.44614407352004</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.71703503120389</v>
+        <v>28.19471715997832</v>
       </c>
       <c r="C22">
-        <v>10.17323948815719</v>
+        <v>15.76777657104524</v>
       </c>
       <c r="D22">
-        <v>7.154373932506375</v>
+        <v>4.071233787253475</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.84201339578777</v>
+        <v>35.23221665184936</v>
       </c>
       <c r="G22">
-        <v>52.35853498643288</v>
+        <v>49.68417858593357</v>
       </c>
       <c r="H22">
-        <v>19.7777273754086</v>
+        <v>14.08299115517323</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.55107303626993</v>
+        <v>6.168886033671041</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.46468671130753</v>
+        <v>7.279649152739537</v>
       </c>
       <c r="M22">
-        <v>18.406873689617</v>
+        <v>15.88599142253381</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.55309008785487</v>
+        <v>27.64415057984325</v>
       </c>
       <c r="C23">
-        <v>10.0534904572127</v>
+        <v>15.5152458571522</v>
       </c>
       <c r="D23">
-        <v>7.153637890077272</v>
+        <v>4.054165588824649</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.8292146240089</v>
+        <v>34.87276712153665</v>
       </c>
       <c r="G23">
-        <v>52.29131018972774</v>
+        <v>49.02428617094356</v>
       </c>
       <c r="H23">
-        <v>19.78703124351928</v>
+        <v>14.00011614333558</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.5583963120965</v>
+        <v>6.195688600335105</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.46470693462986</v>
+        <v>7.233786672876619</v>
       </c>
       <c r="M23">
-        <v>18.36866996721702</v>
+        <v>15.65195626705378</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.92729995398018</v>
+        <v>25.48170522220389</v>
       </c>
       <c r="C24">
-        <v>9.583865795102902</v>
+        <v>14.52871985168502</v>
       </c>
       <c r="D24">
-        <v>7.151200130198124</v>
+        <v>3.991269775356436</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.79989435763984</v>
+        <v>33.56625236453946</v>
       </c>
       <c r="G24">
-        <v>52.06466436624668</v>
+        <v>46.58748178743402</v>
       </c>
       <c r="H24">
-        <v>19.82952161540683</v>
+        <v>13.71361611018807</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.58712597029461</v>
+        <v>6.297971710552719</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.46702396958175</v>
+        <v>7.063820997280139</v>
       </c>
       <c r="M24">
-        <v>18.22825748491295</v>
+        <v>14.75000064354781</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.24568501120472</v>
+        <v>22.97861667111413</v>
       </c>
       <c r="C25">
-        <v>9.044288962812946</v>
+        <v>13.39941961759458</v>
       </c>
       <c r="D25">
-        <v>7.149323278067935</v>
+        <v>3.926538554265777</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.80911645025295</v>
+        <v>32.27022726078219</v>
       </c>
       <c r="G25">
-        <v>51.88034113479129</v>
+        <v>44.09146772475464</v>
       </c>
       <c r="H25">
-        <v>19.89077083960289</v>
+        <v>13.45880194081337</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.62025465975893</v>
+        <v>6.410460815846716</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.47433921130768</v>
+        <v>6.888500542118246</v>
       </c>
       <c r="M25">
-        <v>18.08643837747508</v>
+        <v>13.74586560250512</v>
       </c>
       <c r="N25">
         <v>0</v>
